--- a/biology/Mycologie/Rubroboletus_legaliae/Rubroboletus_legaliae.xlsx
+++ b/biology/Mycologie/Rubroboletus_legaliae/Rubroboletus_legaliae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet chicorée
 Rubroboletus legaliae, le Bolet chicorée, anciennement Boletus legaliae, est une espèce toxique de champignons (Fungi) basidiomycètes du genre Rubroboletus dans la famille des Boletaceae. Il est caractérisé par son chapeau grisâtre rosâtre, son pied orné d'un fin réseau limité et son odeur de chicorée.
@@ -512,12 +524,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rubroboletus legaliae (Pilát &amp; Dermek) Della Magg. &amp; Trassin.[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus legaliae Pilát &amp; Dermek[1].
-Synonymes
-Rubroboletus legaliae a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Rubroboletus legaliae (Pilát &amp; Dermek) Della Magg. &amp; Trassin.. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus legaliae Pilát &amp; Dermek.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rubroboletus_legaliae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_legaliae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rubroboletus legaliae a pour synonymes :
 Boletus legaliae f. spinarii (Hlaváček) Janda
 Boletus legaliae (Pilát &amp; Dermek) Della Maggiora &amp; Trassinelli
 Boletus legaliae Pilát &amp; Dermek
@@ -526,52 +574,7 @@
 Boletus spinarii Hlaváček
 Boletus splendidus subsp. moseri Singer &amp; Kuthan
 Boletus splendidus subsp. splendidus
-Rubroboletus legaliae f. spinarii (Hlaváček) Mikšík
-Phylogénie
-Boletus splendidus tel que décrit par Charles-Edouard Martin en 1894 en est un synonyme. La description de Boletus satanoides était trop vague pour être attribuée à une espèce réelle. Boletus legaliae a été transféré au genre Rubroboletus en 2015 par Marco Della Maggiora et Renzo Trassinelli.
-Étymologie
-L'épithète legaliae a été attribué en hommage à la mycologue française Marcelle Le Gal[2].
-Mikšík, P.-A. Moreau &amp; Assyov préconisent l’écriture de l’adjectif spécifique « le-galiae »[3].
-Noms vulgaires et vernaculaires
-Ce taxon porte en français les noms vernaculaires ou normalisés suivant : Bolet chicorée, Bolet de Le Gal[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rubroboletus_legaliae</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rubroboletus_legaliae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Rubroboletus legaliae sont les suivantes:
-Son chapeau mesure 5 à 20 cm, d'abord brunâtre café-au-lait, puis envahit de rose ou de rose rougeâtre, vieux rose[5], rosissant à partir de la marge[6]. Au grattage, la cuticule dégage avec l'âge une odeur rappelant celle de la chicorée torréfiée[7].
-Son hyménophore présente des pores jaunes évoluant vite vers le rouge orangé ou le rouge rose[5].
-Son stipe mesure 5 à 15 cm x 1,5 à 5 cm, jaune au sommet, plus rose en bas, avec un fin réseau rouge limité au sommet, se transformant en fines ponctuations en allant vers la base[7],[5].
-Sa chair est jaunâtre, bleuissant assez fortement. Odeur typique de chicorée torréfiée, notamment avec l’âge[5]. Saveur douce[6].
-Caractéristiques microscopiques
-Ses spores mesurent 10-15 x 4,5-6 μm[5].
-</t>
+Rubroboletus legaliae f. spinarii (Hlaváček) Mikšík</t>
         </is>
       </c>
     </row>
@@ -596,10 +599,198 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus splendidus tel que décrit par Charles-Edouard Martin en 1894 en est un synonyme. La description de Boletus satanoides était trop vague pour être attribuée à une espèce réelle. Boletus legaliae a été transféré au genre Rubroboletus en 2015 par Marco Della Maggiora et Renzo Trassinelli.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rubroboletus_legaliae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_legaliae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète legaliae a été attribué en hommage à la mycologue française Marcelle Le Gal.
+Mikšík, P.-A. Moreau &amp; Assyov préconisent l’écriture de l’adjectif spécifique « le-galiae ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rubroboletus_legaliae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_legaliae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivant : Bolet chicorée, Bolet de Le Gal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rubroboletus_legaliae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_legaliae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Rubroboletus legaliae sont les suivantes:
+Son chapeau mesure 5 à 20 cm, d'abord brunâtre café-au-lait, puis envahit de rose ou de rose rougeâtre, vieux rose, rosissant à partir de la marge. Au grattage, la cuticule dégage avec l'âge une odeur rappelant celle de la chicorée torréfiée.
+Son hyménophore présente des pores jaunes évoluant vite vers le rouge orangé ou le rouge rose.
+Son stipe mesure 5 à 15 cm x 1,5 à 5 cm, jaune au sommet, plus rose en bas, avec un fin réseau rouge limité au sommet, se transformant en fines ponctuations en allant vers la base,.
+Sa chair est jaunâtre, bleuissant assez fortement. Odeur typique de chicorée torréfiée, notamment avec l’âge. Saveur douce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rubroboletus_legaliae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_legaliae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 10-15 x 4,5-6 μm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rubroboletus_legaliae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_legaliae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubroboletus legaliae f. spinarii existe, plus élancée et moins colorée, aux pores et stipe jaune à l'âge adulte et au chapeau framboise, très semblable à Butyriboletus fuscoroseus, sans que l'on sache si il s'agit d'une forme ou d'un simple aspect rentrant dans la variabilité de couleurs naturelle de legaliae.
 </t>
